--- a/cfg/ComplyCompiler/templates/Testberichten sjabloon leeg.xlsx
+++ b/cfg/ComplyCompiler/templates/Testberichten sjabloon leeg.xlsx
@@ -14,11 +14,6 @@
   <definedNames/>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -146,7 +141,7 @@
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,335 +380,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -767,36 +442,21 @@
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <!--<conditionalFormatting sqref="D3:K3">
-		<cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-			<formula>D$2=""</formula>
-		</cfRule>
-	</conditionalFormatting>-->
-  <!--
-	<dataValidations>
-	</dataValidations>
-	<hyperlinks>
-	</hyperlinks>-->
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
@@ -850,30 +510,21 @@
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <!--<conditionalFormatting sqref="D3:K3">
-		<cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-			<formula>D$2=""</formula>
-		</cfRule>
-	</conditionalFormatting>-->
+  <!--<conditionalFormatting sqref="D3:K3"><cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1"><formula>D$2=""</formula></cfRule></conditionalFormatting>-->
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -889,10 +540,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>